--- a/DataBase/Datas/__beans__.xlsx
+++ b/DataBase/Datas/__beans__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84B8EBD-94A1-4C02-8AB5-AB36E03CDC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2C98BB-69ED-4F19-800B-1D18840E91E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>##var</t>
   </si>
@@ -107,6 +107,10 @@
   </si>
   <si>
     <t>type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>formual</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -352,13 +356,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -385,13 +389,13 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -671,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -849,136 +853,156 @@
       <c r="N6" s="9"/>
     </row>
     <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="9"/>
+    </row>
+    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="7"/>
-    </row>
-    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="9"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="7"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="9"/>
     </row>
     <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="9"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="7"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="9"/>
     </row>
     <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="9"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="7"/>
-    </row>
-    <row r="14" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="11"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/DataBase/Datas/__beans__.xlsx
+++ b/DataBase/Datas/__beans__.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2C98BB-69ED-4F19-800B-1D18840E91E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DBBFCF-3762-44F8-80CE-92392715AB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -111,6 +111,26 @@
   </si>
   <si>
     <t>formual</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reward.Reward</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward_value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardType.Reward</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于随从，value为id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -678,7 +698,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -894,7 +914,9 @@
     </row>
     <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
+      <c r="B9" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -902,8 +924,12 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="J9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="9"/>
@@ -918,10 +944,16 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="J10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
+      <c r="M10" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.2">
